--- a/medicine/Sexualité et sexologie/CLER_Amour_et_Famille/CLER_Amour_et_Famille.xlsx
+++ b/medicine/Sexualité et sexologie/CLER_Amour_et_Famille/CLER_Amour_et_Famille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CLER Amour et Famille,  fondé en 1962 en réaction à la création du planning familial[1], est une association française catholique reconnue d'utilité publique le 17 mai 1977[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CLER Amour et Famille,  fondé en 1962 en réaction à la création du planning familial, est une association française catholique reconnue d'utilité publique le 17 mai 1977.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CLER est « créé en réaction aux activités du Planning en 1962 par le père Denis Sonnet »[3]. Charles Rendu, vice-président de l'association Laissez les vivre, et Michèle Guy, présidente de Grossesse Secours, organisations catholiques militantes contre l'avortement, sont à l'origine de la création du CLER[4]. Le CLER indique œuvrer « pour l’épanouissement affectif et familial de toute personne, jeune ou adulte, en couple ou non »[5]. 
-Le CLER est agréé Jeunesse et éducation populaire par le ministère de la Jeunesse et des Sports[6],[7].
-Les conseils conjugaux et familiaux du CLER interviennent sur différents thèmes liés à la vie de couple et à la vie familiale : tensions et violences conjugales et familiales, vie relationnelle et sexuelle, difficultés relationnelles[5]
-Les éducateurs à la vie du CLER interviennent au sein d'établissements scolaires auprès d'enfants et d'adolescents sur « le sens de l'amour humain et de la sexualité »[8] dans le cadre de ce qu'on appelle l'éducation affective, relationnelle et sexuelle[9]. Ils interviennent dans des établissements privés, mais ne disposent pas d'agrément pour les établissements publics[10].
-Les moniteurs du CLER enseignent aux personnes qui en font la demande la méthode naturelle de régulation des naissances Cyclamen. Le rapport de l'IGAS de 2011 note que « le Cler revendique une expertise sur les méthodes naturelles de contraception », mais que la pertinence de celles-ci auprès d'un jeune public suscite l'interrogation[10].
-L'action du CLER a été saluée par le pape Jean-Paul II en novembre 1979[11].
-En 2019, le CLER lance le parcours Vivlavie à destination des préadolescents et de leurs parents[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CLER est « créé en réaction aux activités du Planning en 1962 par le père Denis Sonnet ». Charles Rendu, vice-président de l'association Laissez les vivre, et Michèle Guy, présidente de Grossesse Secours, organisations catholiques militantes contre l'avortement, sont à l'origine de la création du CLER. Le CLER indique œuvrer « pour l’épanouissement affectif et familial de toute personne, jeune ou adulte, en couple ou non ». 
+Le CLER est agréé Jeunesse et éducation populaire par le ministère de la Jeunesse et des Sports,.
+Les conseils conjugaux et familiaux du CLER interviennent sur différents thèmes liés à la vie de couple et à la vie familiale : tensions et violences conjugales et familiales, vie relationnelle et sexuelle, difficultés relationnelles
+Les éducateurs à la vie du CLER interviennent au sein d'établissements scolaires auprès d'enfants et d'adolescents sur « le sens de l'amour humain et de la sexualité » dans le cadre de ce qu'on appelle l'éducation affective, relationnelle et sexuelle. Ils interviennent dans des établissements privés, mais ne disposent pas d'agrément pour les établissements publics.
+Les moniteurs du CLER enseignent aux personnes qui en font la demande la méthode naturelle de régulation des naissances Cyclamen. Le rapport de l'IGAS de 2011 note que « le Cler revendique une expertise sur les méthodes naturelles de contraception », mais que la pertinence de celles-ci auprès d'un jeune public suscite l'interrogation.
+L'action du CLER a été saluée par le pape Jean-Paul II en novembre 1979.
+En 2019, le CLER lance le parcours Vivlavie à destination des préadolescents et de leurs parents.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Régulation naturelle des naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CLER propose une méthode naturelle de régulation des naissances basée sur l'auto-observation[13].
-Stanislas de Lestapis, Alphonse d'Heilly et Charles Rendu fondent le CLER lors du troisième colloque national du CPM, consacré à la régulation naturelle des naissances, en réaction à l'ouverture du premier centre d'accueil du Planning familial à Grenoble en 1961[14],[15],[16],[17]. Trois couples pionniers organisent un centre d’information sur la méthode thermique dans leur ville respective : les Vincent à Nantes, les Rendu à Paris et les Guy à Grenoble[18].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CLER propose une méthode naturelle de régulation des naissances basée sur l'auto-observation.
+Stanislas de Lestapis, Alphonse d'Heilly et Charles Rendu fondent le CLER lors du troisième colloque national du CPM, consacré à la régulation naturelle des naissances, en réaction à l'ouverture du premier centre d'accueil du Planning familial à Grenoble en 1961. Trois couples pionniers organisent un centre d’information sur la méthode thermique dans leur ville respective : les Vincent à Nantes, les Rendu à Paris et les Guy à Grenoble.
 </t>
         </is>
       </c>
